--- a/data/Behavioral/description/FFQ.xlsx
+++ b/data/Behavioral/description/FFQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="460" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="17860" yWindow="740" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,627 +47,6 @@
     <t>Food Frequency Questionnaire (FFQ)</t>
   </si>
   <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>COLDCEREALFREQ</t>
-  </si>
-  <si>
-    <t>COLDCEREALQUAN</t>
-  </si>
-  <si>
-    <t>COOKCERFREQ</t>
-  </si>
-  <si>
-    <t>COOKCERQUAN</t>
-  </si>
-  <si>
-    <t>EGGFREQ</t>
-  </si>
-  <si>
-    <t>EGGQUAN</t>
-  </si>
-  <si>
-    <t>GRANBARFREQ</t>
-  </si>
-  <si>
-    <t>GRANBARQUAN</t>
-  </si>
-  <si>
-    <t>MILKFREQ</t>
-  </si>
-  <si>
-    <t>MILKQUAN</t>
-  </si>
-  <si>
-    <t>FRUITJCFREQ</t>
-  </si>
-  <si>
-    <t>FRUITJCQUAN</t>
-  </si>
-  <si>
-    <t>SODAFREQ</t>
-  </si>
-  <si>
-    <t>SODAQUAN</t>
-  </si>
-  <si>
-    <t>APPLEFREQ</t>
-  </si>
-  <si>
-    <t>APPLEQUAN</t>
-  </si>
-  <si>
-    <t>APPLSCFREQ</t>
-  </si>
-  <si>
-    <t>APPLSCQUAN</t>
-  </si>
-  <si>
-    <t>OTHFRUTFREQ</t>
-  </si>
-  <si>
-    <t>OTHFRUTQUAN</t>
-  </si>
-  <si>
-    <t>FRENCHFREQ</t>
-  </si>
-  <si>
-    <t>FRENCHQUAN</t>
-  </si>
-  <si>
-    <t>OTHPOTFREQ</t>
-  </si>
-  <si>
-    <t>OTHPOTQUAN</t>
-  </si>
-  <si>
-    <t>KETCHUPFREQ</t>
-  </si>
-  <si>
-    <t>KETCHUPQUAN</t>
-  </si>
-  <si>
-    <t>LETTUCEFREQ</t>
-  </si>
-  <si>
-    <t>LETTUCEQUAN</t>
-  </si>
-  <si>
-    <t>TOMATOFREQ</t>
-  </si>
-  <si>
-    <t>TOMATOQUAN</t>
-  </si>
-  <si>
-    <t>GRNBEANFREQ</t>
-  </si>
-  <si>
-    <t>GRNBEANQUAN</t>
-  </si>
-  <si>
-    <t>OTHVEGFREQ</t>
-  </si>
-  <si>
-    <t>OTHVEGQUAN</t>
-  </si>
-  <si>
-    <t>VEGSOUPFREQ</t>
-  </si>
-  <si>
-    <t>VEGSOUPQUAN</t>
-  </si>
-  <si>
-    <t>PINTOFREQ</t>
-  </si>
-  <si>
-    <t>PINTOQUAN</t>
-  </si>
-  <si>
-    <t>REFRIEDFREQ</t>
-  </si>
-  <si>
-    <t>REFRIEDQUAN</t>
-  </si>
-  <si>
-    <t>HAMBGRFREQ</t>
-  </si>
-  <si>
-    <t>HAMBGRQUAN</t>
-  </si>
-  <si>
-    <t>HOTDOGFREQ</t>
-  </si>
-  <si>
-    <t>HOTDOGQUAN</t>
-  </si>
-  <si>
-    <t>LUNCHMTFREQ</t>
-  </si>
-  <si>
-    <t>LUNCHMTQUAN</t>
-  </si>
-  <si>
-    <t>PIZZAFREQ</t>
-  </si>
-  <si>
-    <t>PIZZAQUAN</t>
-  </si>
-  <si>
-    <t>SPAGFREQ</t>
-  </si>
-  <si>
-    <t>SPAGQUAN</t>
-  </si>
-  <si>
-    <t>MACFREQ</t>
-  </si>
-  <si>
-    <t>MACQUAN</t>
-  </si>
-  <si>
-    <t>CHICKFREQ</t>
-  </si>
-  <si>
-    <t>CHICKQUAN</t>
-  </si>
-  <si>
-    <t>FISHFREQ</t>
-  </si>
-  <si>
-    <t>FISHQUAN</t>
-  </si>
-  <si>
-    <t>BURRITOFREQ</t>
-  </si>
-  <si>
-    <t>BURRITOQUAN</t>
-  </si>
-  <si>
-    <t>RSTBFFREQ</t>
-  </si>
-  <si>
-    <t>RSTBFQUAN</t>
-  </si>
-  <si>
-    <t>OTHMEATFREQ</t>
-  </si>
-  <si>
-    <t>OTHMEATQUAN</t>
-  </si>
-  <si>
-    <t>PORKFREQ</t>
-  </si>
-  <si>
-    <t>PORKQUAN</t>
-  </si>
-  <si>
-    <t>POPCORNFREQ</t>
-  </si>
-  <si>
-    <t>POPCORNQUAN</t>
-  </si>
-  <si>
-    <t>SNKCHPFREQ</t>
-  </si>
-  <si>
-    <t>SNKCHPQUAN</t>
-  </si>
-  <si>
-    <t>ICECRMFREQ</t>
-  </si>
-  <si>
-    <t>ICECRMQUAN</t>
-  </si>
-  <si>
-    <t>CANDYFREQ</t>
-  </si>
-  <si>
-    <t>CANDYQUAN</t>
-  </si>
-  <si>
-    <t>COOKIEFREQ</t>
-  </si>
-  <si>
-    <t>COOKIEQUAN</t>
-  </si>
-  <si>
-    <t>CHEESEFREQ</t>
-  </si>
-  <si>
-    <t>CHEESEQUAN</t>
-  </si>
-  <si>
-    <t>WHEATBRDFREQ</t>
-  </si>
-  <si>
-    <t>WHEATBRDQUAN</t>
-  </si>
-  <si>
-    <t>COLDCEREALTYPE</t>
-  </si>
-  <si>
-    <t>MILKTYPE</t>
-  </si>
-  <si>
-    <t>FRUIT_CE</t>
-  </si>
-  <si>
-    <t>VEGNOPOT_CE</t>
-  </si>
-  <si>
-    <t>POTATO_CE</t>
-  </si>
-  <si>
-    <t>WHLGRAIN_OZE</t>
-  </si>
-  <si>
-    <t>SATFAT_G</t>
-  </si>
-  <si>
-    <t>MEATPOULFISH_OZE</t>
-  </si>
-  <si>
-    <t>DAIRY_CE</t>
-  </si>
-  <si>
-    <t>LEGUMES_CE</t>
-  </si>
-  <si>
-    <t>SUGARADDED_TSP</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>DT_KCAL</t>
-  </si>
-  <si>
-    <t>DT_PROT</t>
-  </si>
-  <si>
-    <t>DT_TFAT</t>
-  </si>
-  <si>
-    <t>DT_CARB</t>
-  </si>
-  <si>
-    <t>DT_FIBE</t>
-  </si>
-  <si>
-    <t>DT_SUG_T</t>
-  </si>
-  <si>
-    <t>GROUP_SUGARYBEVG_TOTAL_KCAL</t>
-  </si>
-  <si>
-    <t>GROUP_SUGARYBEVG_TOTAL_FREQUENCY</t>
-  </si>
-  <si>
-    <t>GROUP_SOLID_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>FOODSPERDAY</t>
-  </si>
-  <si>
-    <t>GROUP_SOLID_COUNT</t>
-  </si>
-  <si>
-    <t>GROUP_SOLID_TOTAL_FREQUENCY</t>
-  </si>
-  <si>
-    <t>DRXIMFAT</t>
-  </si>
-  <si>
-    <t>DRXIPFAT</t>
-  </si>
-  <si>
-    <t>DRXICHOL</t>
-  </si>
-  <si>
-    <t>DRXIATOC</t>
-  </si>
-  <si>
-    <t>DRXIRET</t>
-  </si>
-  <si>
-    <t>DRXIVARA</t>
-  </si>
-  <si>
-    <t>DRXIACAR</t>
-  </si>
-  <si>
-    <t>DRXIBCAR</t>
-  </si>
-  <si>
-    <t>DRXICRYP</t>
-  </si>
-  <si>
-    <t>DRXILYCO</t>
-  </si>
-  <si>
-    <t>DRXILZ</t>
-  </si>
-  <si>
-    <t>DRXIVB1</t>
-  </si>
-  <si>
-    <t>DRXIVB2</t>
-  </si>
-  <si>
-    <t>DRXINIAC</t>
-  </si>
-  <si>
-    <t>DRXIVB6</t>
-  </si>
-  <si>
-    <t>DRXIFOLA</t>
-  </si>
-  <si>
-    <t>DRXIFA</t>
-  </si>
-  <si>
-    <t>DRXIFF</t>
-  </si>
-  <si>
-    <t>DRXIFDFE</t>
-  </si>
-  <si>
-    <t>DRXIVB12</t>
-  </si>
-  <si>
-    <t>DRXIVC</t>
-  </si>
-  <si>
-    <t>DRXIVK</t>
-  </si>
-  <si>
-    <t>DRXICALC</t>
-  </si>
-  <si>
-    <t>DRXIPHOS</t>
-  </si>
-  <si>
-    <t>DRXIMAGN</t>
-  </si>
-  <si>
-    <t>DRXIIRON</t>
-  </si>
-  <si>
-    <t>DRXIZINC</t>
-  </si>
-  <si>
-    <t>DRXICOPP</t>
-  </si>
-  <si>
-    <t>DRDISODI</t>
-  </si>
-  <si>
-    <t>DRXIPOTA</t>
-  </si>
-  <si>
-    <t>DRXISELE</t>
-  </si>
-  <si>
-    <t>DRXICAFF</t>
-  </si>
-  <si>
-    <t>DRXITHEO</t>
-  </si>
-  <si>
-    <t>DRXIALCO</t>
-  </si>
-  <si>
-    <t>DRXIMOIS</t>
-  </si>
-  <si>
-    <t>DRXIS040</t>
-  </si>
-  <si>
-    <t>DRXIS060</t>
-  </si>
-  <si>
-    <t>DRXIS080</t>
-  </si>
-  <si>
-    <t>DRXIS100</t>
-  </si>
-  <si>
-    <t>DRXIS120</t>
-  </si>
-  <si>
-    <t>DRXIS140</t>
-  </si>
-  <si>
-    <t>DRXIS160</t>
-  </si>
-  <si>
-    <t>DRXIS180</t>
-  </si>
-  <si>
-    <t>DRXIM161</t>
-  </si>
-  <si>
-    <t>DRXIM181</t>
-  </si>
-  <si>
-    <t>DRXIM201</t>
-  </si>
-  <si>
-    <t>DRXIM221</t>
-  </si>
-  <si>
-    <t>DRXIP182</t>
-  </si>
-  <si>
-    <t>DRXIP183</t>
-  </si>
-  <si>
-    <t>DRXIP184</t>
-  </si>
-  <si>
-    <t>DRXIP204</t>
-  </si>
-  <si>
-    <t>DRXIP205</t>
-  </si>
-  <si>
-    <t>DRXIP225</t>
-  </si>
-  <si>
-    <t>DRXIP226</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CEREALNOTWGSWEET_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_COOKEDCEREAL_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_EGGSANDWICH_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_BREAKFASTPROTEINBARS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILK2PCT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_FRUITJUICE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_SOFTDRINKS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_APPLEBANANAORANGE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_APPLESAUCECANNEDFRUIT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_ANYOTHERFRUIT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_FRIEDPOTATOES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_OTHERPOTATOES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_KETCHUPSALSA_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_LETTUCESALAD_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_TOMATOES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_GREENBEANSPEAS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_OTHERVEGETABLES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_VEGETABLESOUPSTEW_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CHILIBEANS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_REFRIEDBEANS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_HAMBURGERCHEESEBURGER_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_HOTDOGSSAUSAGE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_LUNCHMEAT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_PIZZA_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_SPAGHETTITOMATOSAUCE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MACNCHEESE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CHICKENNDISHES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_FISHNDISHES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_BURRITOSTACOS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_BEEFROASTSTEAK_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MEATBALLSBEEFDISHES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_PORK_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_POPCORN_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CHIPSCORNPOTATO_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_ICECREAM_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CANDYNBARS_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_COOKIEDONUTCAKE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CHEESENDISHES_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_WHOLEWHEATBREAD_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CEREALWGNOTSWEET_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CEREALWGSWEET_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_CEREALNOTWGNOTSWEET_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILK4PCT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILK1PCT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILKCHOCOLATE_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILKLACTOSEREDUCED_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILKNONFAT_TOTAL_GRAMS</t>
-  </si>
-  <si>
-    <t>GROUP_FD_MILKSOY_TOTAL_GRAMS</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -1430,6 +809,627 @@
   <si>
     <t>*Variables for secondary and tertiary analyses were added to the analysis database AFTER the Screener food list was developed,
 at the request of several research groups. As the screener was not designed or intended to measure these variables, the generated estimates should be interpreted with caution. There are no data to support the validity of these estimates.</t>
+  </si>
+  <si>
+    <t>FFQ_COLDCEREALFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_COLDCEREALQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_COOKCERFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_COOKCERQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_EGGFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_EGGQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_GRANBARFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_GRANBARQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_MILKFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_MILKQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_FRUITJCFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_FRUITJCQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_SODAFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_SODAQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_APPLEFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_APPLEQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_APPLSCFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_APPLSCQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_OTHFRUTFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_OTHFRUTQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_FRENCHFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_FRENCHQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_OTHPOTFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_OTHPOTQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_KETCHUPFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_KETCHUPQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_LETTUCEFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_LETTUCEQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_TOMATOFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_TOMATOQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_GRNBEANFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_GRNBEANQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_OTHVEGFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_OTHVEGQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_VEGSOUPFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_VEGSOUPQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_PINTOFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_PINTOQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_REFRIEDFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_REFRIEDQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_HAMBGRFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_HAMBGRQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_HOTDOGFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_HOTDOGQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_LUNCHMTFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_LUNCHMTQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_PIZZAFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_PIZZAQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_SPAGFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_SPAGQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_MACFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_MACQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_CHICKFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_CHICKQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_FISHFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_FISHQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_BURRITOFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_BURRITOQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_RSTBFFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_RSTBFQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_OTHMEATFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_OTHMEATQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_PORKFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_PORKQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_POPCORNFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_POPCORNQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_SNKCHPFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_SNKCHPQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_ICECRMFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_ICECRMQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_CANDYFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_CANDYQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_COOKIEFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_COOKIEQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_CHEESEFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_CHEESEQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_WHEATBRDFREQ</t>
+  </si>
+  <si>
+    <t>FFQ_WHEATBRDQUAN</t>
+  </si>
+  <si>
+    <t>FFQ_COLDCEREALTYPE</t>
+  </si>
+  <si>
+    <t>FFQ_MILKTYPE</t>
+  </si>
+  <si>
+    <t>FFQ_FRUIT_CE</t>
+  </si>
+  <si>
+    <t>FFQ_VEGNOPOT_CE</t>
+  </si>
+  <si>
+    <t>FFQ_POTATO_CE</t>
+  </si>
+  <si>
+    <t>FFQ_WHLGRAIN_OZE</t>
+  </si>
+  <si>
+    <t>FFQ_SATFAT_G</t>
+  </si>
+  <si>
+    <t>FFQ_MEATPOULFISH_OZE</t>
+  </si>
+  <si>
+    <t>FFQ_DAIRY_CE</t>
+  </si>
+  <si>
+    <t>FFQ_LEGUMES_CE</t>
+  </si>
+  <si>
+    <t>FFQ_SUGARADDED_TSP</t>
+  </si>
+  <si>
+    <t>FFQ_GI</t>
+  </si>
+  <si>
+    <t>FFQ_GL</t>
+  </si>
+  <si>
+    <t>FFQ_DT_KCAL</t>
+  </si>
+  <si>
+    <t>FFQ_DT_PROT</t>
+  </si>
+  <si>
+    <t>FFQ_DT_TFAT</t>
+  </si>
+  <si>
+    <t>FFQ_DT_CARB</t>
+  </si>
+  <si>
+    <t>FFQ_DT_FIBE</t>
+  </si>
+  <si>
+    <t>FFQ_DT_SUG_T</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_SUGARYBEVG_TOTAL_KCAL</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_SUGARYBEVG_TOTAL_FREQUENCY</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_SOLID_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_FOODSPERDAY</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_SOLID_COUNT</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_SOLID_TOTAL_FREQUENCY</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIMFAT</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIPFAT</t>
+  </si>
+  <si>
+    <t>FFQ_DRXICHOL</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIATOC</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIRET</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVARA</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIACAR</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIBCAR</t>
+  </si>
+  <si>
+    <t>FFQ_DRXICRYP</t>
+  </si>
+  <si>
+    <t>FFQ_DRXILYCO</t>
+  </si>
+  <si>
+    <t>FFQ_DRXILZ</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVB1</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVB2</t>
+  </si>
+  <si>
+    <t>FFQ_DRXINIAC</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVB6</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIFOLA</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIFA</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIFF</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIFDFE</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVB12</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVC</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIVK</t>
+  </si>
+  <si>
+    <t>FFQ_DRXICALC</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIPHOS</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIMAGN</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIIRON</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIZINC</t>
+  </si>
+  <si>
+    <t>FFQ_DRXICOPP</t>
+  </si>
+  <si>
+    <t>FFQ_DRDISODI</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIPOTA</t>
+  </si>
+  <si>
+    <t>FFQ_DRXISELE</t>
+  </si>
+  <si>
+    <t>FFQ_DRXICAFF</t>
+  </si>
+  <si>
+    <t>FFQ_DRXITHEO</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIALCO</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIMOIS</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS040</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS060</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS080</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS100</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS120</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS140</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS160</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIS180</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIM161</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIM181</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIM201</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIM221</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP182</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP183</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP184</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP204</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP205</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP225</t>
+  </si>
+  <si>
+    <t>FFQ_DRXIP226</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CEREALNOTWGSWEET_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_COOKEDCEREAL_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_EGGSANDWICH_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_BREAKFASTPROTEINBARS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILK2PCT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_FRUITJUICE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_SOFTDRINKS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_APPLEBANANAORANGE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_APPLESAUCECANNEDFRUIT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_ANYOTHERFRUIT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_FRIEDPOTATOES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_OTHERPOTATOES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_KETCHUPSALSA_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_LETTUCESALAD_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_TOMATOES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_GREENBEANSPEAS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_OTHERVEGETABLES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_VEGETABLESOUPSTEW_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CHILIBEANS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_REFRIEDBEANS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_HAMBURGERCHEESEBURGER_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_HOTDOGSSAUSAGE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_LUNCHMEAT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_PIZZA_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_SPAGHETTITOMATOSAUCE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MACNCHEESE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CHICKENNDISHES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_FISHNDISHES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_BURRITOSTACOS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_BEEFROASTSTEAK_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MEATBALLSBEEFDISHES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_PORK_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_POPCORN_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CHIPSCORNPOTATO_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_ICECREAM_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CANDYNBARS_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_COOKIEDONUTCAKE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CHEESENDISHES_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_WHOLEWHEATBREAD_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CEREALWGNOTSWEET_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CEREALWGSWEET_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_CEREALNOTWGNOTSWEET_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILK4PCT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILK1PCT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILKCHOCOLATE_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILKLACTOSEREDUCED_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILKNONFAT_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t>FFQ_GROUP_FD_MILKSOY_TOTAL_GRAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soy milk, total grams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1% Milk, total grams </t>
   </si>
 </sst>
 </file>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1963,37 +1963,37 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>425</v>
+        <v>218</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
@@ -2002,2289 +2002,2286 @@
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>428</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>432</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>435</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>437</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>444</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>444</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>446</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>447</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>439</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>288</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>440</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>441</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>438</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>442</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>292</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>436</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>441</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>427</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>448</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>323</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>449</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>215</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>431</v>
+        <v>224</v>
       </c>
       <c r="F85" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B86" s="10"/>
+        <v>214</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>299</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>304</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B98" s="10"/>
+        <v>215</v>
+      </c>
       <c r="F98" s="12" t="s">
-        <v>451</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>316</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>317</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>312</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>313</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>423</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B108"/>
     </row>
     <row r="109" spans="1:6" ht="208" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>450</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B112" s="10"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>325</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>326</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>327</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>329</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>330</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>363</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>365</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>346</v>
+        <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>348</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>349</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>351</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>352</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>354</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>355</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>358</v>
+        <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>366</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>397</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>371</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B167" s="10"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>375</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>377</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>386</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>388</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>389</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>416</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>390</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>393</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>421</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>395</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>185</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
+        <v>425</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>400</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>401</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>428</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>192</v>
+        <v>429</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>403</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>430</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>405</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>406</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>407</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>408</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>437</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>440</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>204</v>
+        <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>420</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B215" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
